--- a/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_LUAD_G12A.xlsx
+++ b/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_LUAD_G12A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="382">
   <si>
     <t>datasource</t>
   </si>
@@ -299,28 +299,61 @@
     <t>86</t>
   </si>
   <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>WikiPathways_2019_Human</t>
   </si>
   <si>
     <t>PPI_Hub_Proteins</t>
   </si>
   <si>
+    <t>KEGG_2019_Human</t>
+  </si>
+  <si>
     <t>Transcription_Factor_PPIs</t>
   </si>
   <si>
+    <t>GO_Biological_Process_2018</t>
+  </si>
+  <si>
     <t>KEA_2015</t>
   </si>
   <si>
-    <t>GO_Biological_Process_2018</t>
-  </si>
-  <si>
     <t>BioCarta_2016</t>
   </si>
   <si>
-    <t>KEGG_2019_Human</t>
-  </si>
-  <si>
-    <t>Panther_2016</t>
+    <t>Reactome_2016</t>
   </si>
   <si>
     <t>Pathways Affected in Adenoid Cystic Carcinoma WP3651</t>
@@ -329,235 +362,271 @@
     <t>RFC1</t>
   </si>
   <si>
+    <t>MAPK signaling pathway</t>
+  </si>
+  <si>
+    <t>ABL1</t>
+  </si>
+  <si>
+    <t>ZNF148</t>
+  </si>
+  <si>
     <t>KAT2A</t>
   </si>
   <si>
-    <t>ZNF148</t>
+    <t>PI3K-Akt signaling pathway</t>
+  </si>
+  <si>
+    <t>miRNAs involved in DNA damage response WP1545</t>
   </si>
   <si>
     <t>KAT5</t>
   </si>
   <si>
+    <t>Neovascularisation processes WP4331</t>
+  </si>
+  <si>
+    <t>BMP Signaling Pathway in Eyelid Development WP3927</t>
+  </si>
+  <si>
+    <t>Integrated Breast Cancer Pathway WP1984</t>
+  </si>
+  <si>
+    <t>regulation of sprouting angiogenesis (GO:1903670)</t>
+  </si>
+  <si>
+    <t>Signaling Pathways in Glioblastoma WP2261</t>
+  </si>
+  <si>
+    <t>Differentiation of white and brown adipocyte    WP2895</t>
+  </si>
+  <si>
+    <t>Angiogenesis WP1539</t>
+  </si>
+  <si>
+    <t>CTNNB1</t>
+  </si>
+  <si>
+    <t>PRKCB</t>
+  </si>
+  <si>
+    <t>Mammary gland development pathway - Pregnancy and lactation (Stage 3 of 4) WP2817</t>
+  </si>
+  <si>
+    <t>miRNA Regulation of DNA Damage Response WP1530</t>
+  </si>
+  <si>
+    <t>Proteoglycans in cancer</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>Ovarian Infertility Genes WP34</t>
+  </si>
+  <si>
+    <t>MAPK Signaling Pathway WP382</t>
+  </si>
+  <si>
+    <t>DNA Damage Response WP707</t>
+  </si>
+  <si>
     <t>ATM</t>
   </si>
   <si>
-    <t>miRNAs involved in DNA damage response WP1545</t>
-  </si>
-  <si>
-    <t>regulation of sprouting angiogenesis (GO:1903670)</t>
-  </si>
-  <si>
-    <t>ABL1</t>
+    <t>SMAD4</t>
+  </si>
+  <si>
+    <t>Gastric Cancer Network 2 WP2363</t>
+  </si>
+  <si>
+    <t>UBC</t>
+  </si>
+  <si>
+    <t>YWHAB</t>
+  </si>
+  <si>
+    <t>PI3K-Akt Signaling Pathway WP4172</t>
+  </si>
+  <si>
+    <t>ErbB Signaling Pathway WP673</t>
   </si>
   <si>
     <t>Cell Cycle: G1/S Check Point _Homo sapiens_h_g1Pathway</t>
   </si>
   <si>
+    <t>Integrated Cancer Pathway WP1971</t>
+  </si>
+  <si>
     <t>E2F1</t>
   </si>
   <si>
+    <t>ATM Signaling Network in Development and Disease  WP3878</t>
+  </si>
+  <si>
+    <t>Retinoblastoma Gene in Cancer WP2446</t>
+  </si>
+  <si>
+    <t>Heart Development WP1591</t>
+  </si>
+  <si>
+    <t>ERBB4</t>
+  </si>
+  <si>
+    <t>USF1</t>
+  </si>
+  <si>
+    <t>MXI1</t>
+  </si>
+  <si>
     <t>Cell Cycle: G2/M Checkpoint_Homo sapiens_h_g2Pathway</t>
   </si>
   <si>
+    <t>XRCC6</t>
+  </si>
+  <si>
     <t>YY1</t>
   </si>
   <si>
+    <t>Diseases associated with O-glycosylation of proteins_Homo sapiens_R-HSA-3906995</t>
+  </si>
+  <si>
+    <t>Photodynamic therapy-induced AP-1 survival signaling. WP3611</t>
+  </si>
+  <si>
+    <t>STAT1</t>
+  </si>
+  <si>
     <t>SMC3</t>
   </si>
   <si>
     <t>TFAP2A</t>
   </si>
   <si>
-    <t>PRKCB</t>
-  </si>
-  <si>
     <t>NR3C1</t>
   </si>
   <si>
-    <t>SMAD4</t>
-  </si>
-  <si>
-    <t>CTNNB1</t>
+    <t>Amplification and Expansion of Oncogenic Pathways as Metastatic Traits WP3678</t>
+  </si>
+  <si>
+    <t>Focal Adhesion-PI3K-Akt-mTOR-signaling pathway WP3932</t>
+  </si>
+  <si>
+    <t>Cardiac Progenitor Differentiation WP2406</t>
+  </si>
+  <si>
+    <t>DNA IR-Double Strand Breaks (DSBs) and cellular response via ATM WP3959</t>
+  </si>
+  <si>
+    <t>TP53 Network WP1742</t>
+  </si>
+  <si>
+    <t>Extracellular vesicles in the crosstalk of cardiac cells WP4300</t>
+  </si>
+  <si>
+    <t>RPS6KA3</t>
+  </si>
+  <si>
+    <t>Human papillomavirus infection</t>
+  </si>
+  <si>
+    <t>signal transduction involved in mitotic G1 DNA damage checkpoint (GO:0072431)</t>
+  </si>
+  <si>
+    <t>AURKB</t>
+  </si>
+  <si>
+    <t>HSP90AA1</t>
+  </si>
+  <si>
+    <t>CDK9</t>
+  </si>
+  <si>
+    <t>IKBKB</t>
+  </si>
+  <si>
+    <t>Transcriptional misregulation in cancer</t>
+  </si>
+  <si>
+    <t>ERBB2</t>
+  </si>
+  <si>
+    <t>PTPN11</t>
+  </si>
+  <si>
+    <t>PTPN6</t>
+  </si>
+  <si>
+    <t>plasma membrane organization (GO:0007009)</t>
+  </si>
+  <si>
+    <t>Overview of telomerase protein component gene hTert Transcriptional Regulation _Homo sapiens_h_tertpathway</t>
+  </si>
+  <si>
+    <t>G1 to S cell cycle control WP45</t>
+  </si>
+  <si>
+    <t>SMAD3</t>
+  </si>
+  <si>
+    <t>Cell Cycle WP179</t>
+  </si>
+  <si>
+    <t>ZEB1</t>
+  </si>
+  <si>
+    <t>Association Between Physico-Chemical Features and Toxicity Associated Pathways WP3680</t>
+  </si>
+  <si>
+    <t>Rap1 signaling pathway</t>
   </si>
   <si>
     <t>RNF2</t>
   </si>
   <si>
-    <t>MXI1</t>
-  </si>
-  <si>
-    <t>RPS6KA3</t>
-  </si>
-  <si>
-    <t>signal transduction involved in mitotic G1 DNA damage checkpoint (GO:0072431)</t>
-  </si>
-  <si>
-    <t>miRNA Regulation of DNA Damage Response WP1530</t>
-  </si>
-  <si>
-    <t>USF1</t>
-  </si>
-  <si>
-    <t>UBC</t>
+    <t>RAC1/PAK1/p38/MMP2 Pathway WP3303</t>
+  </si>
+  <si>
+    <t>CDK6</t>
+  </si>
+  <si>
+    <t>SREBF2</t>
+  </si>
+  <si>
+    <t>BRF1</t>
+  </si>
+  <si>
+    <t>Focal Adhesion WP306</t>
+  </si>
+  <si>
+    <t>KRT7</t>
+  </si>
+  <si>
+    <t>miRNA regulation of p53 pathway in prostate cancer WP3982</t>
   </si>
   <si>
     <t>SP1</t>
   </si>
   <si>
-    <t>MAPK signaling pathway</t>
-  </si>
-  <si>
-    <t>DNA Damage Response WP707</t>
-  </si>
-  <si>
-    <t>ATM Signaling Network in Development and Disease  WP3878</t>
-  </si>
-  <si>
-    <t>Integrated Cancer Pathway WP1971</t>
-  </si>
-  <si>
-    <t>PI3K-Akt signaling pathway</t>
-  </si>
-  <si>
-    <t>Overview of telomerase protein component gene hTert Transcriptional Regulation _Homo sapiens_h_tertpathway</t>
-  </si>
-  <si>
-    <t>SREBF2</t>
-  </si>
-  <si>
-    <t>IKBKB</t>
-  </si>
-  <si>
-    <t>Transcriptional misregulation in cancer</t>
-  </si>
-  <si>
-    <t>Heart Development WP1591</t>
-  </si>
-  <si>
-    <t>Signaling Pathways in Glioblastoma WP2261</t>
-  </si>
-  <si>
-    <t>Integrated Breast Cancer Pathway WP1984</t>
-  </si>
-  <si>
-    <t>Retinoblastoma Gene in Cancer WP2446</t>
+    <t>Small cell lung cancer</t>
+  </si>
+  <si>
+    <t>Ebola Virus Pathway on Host WP4217</t>
+  </si>
+  <si>
+    <t>MAPKinase Signaling Pathway_Homo sapiens_h_mapkPathway</t>
   </si>
   <si>
     <t>BMI1</t>
   </si>
   <si>
-    <t>SREBF1</t>
-  </si>
-  <si>
-    <t>BRF1</t>
-  </si>
-  <si>
-    <t>Apoptotic Signaling in Response to DNA Damage_Homo sapiens_h_chemicalPathway</t>
-  </si>
-  <si>
-    <t>PRKDC</t>
-  </si>
-  <si>
-    <t>ATM Signaling Pathway_Homo sapiens_h_atmPathway</t>
-  </si>
-  <si>
-    <t>CSNK1E</t>
-  </si>
-  <si>
-    <t>CDK7</t>
-  </si>
-  <si>
-    <t>RB Tumor Suppressor/Checkpoint Signaling in response to DNA damage_Homo sapiens_h_rbPathway</t>
-  </si>
-  <si>
-    <t>CDK9</t>
-  </si>
-  <si>
-    <t>AURKB</t>
-  </si>
-  <si>
-    <t>Tumor Suppressor Arf Inhibits Ribosomal Biogenesis_Homo sapiens_h_arfPathway</t>
-  </si>
-  <si>
-    <t>RPS6KC1</t>
-  </si>
-  <si>
-    <t>CDK6</t>
-  </si>
-  <si>
-    <t>RPS6KA6</t>
-  </si>
-  <si>
-    <t>Regulation of cell cycle progression by Plk3_Homo sapiens_h_plk3Pathway</t>
-  </si>
-  <si>
-    <t>RPS6KL1</t>
-  </si>
-  <si>
-    <t>XPO1</t>
-  </si>
-  <si>
-    <t>Small cell lung cancer</t>
-  </si>
-  <si>
-    <t>CSNK1D</t>
-  </si>
-  <si>
-    <t>MAPKinase Signaling Pathway_Homo sapiens_h_mapkPathway</t>
-  </si>
-  <si>
-    <t>CTCF: First Multivalent Nuclear Factor_Homo sapiens_h_ctcfPathway</t>
-  </si>
-  <si>
-    <t>Amplification and Expansion of Oncogenic Pathways as Metastatic Traits WP3678</t>
-  </si>
-  <si>
-    <t>Role of BRCA1,  BRCA2 and ATR in Cancer Susceptibility_Homo sapiens_h_atrbrcaPathway</t>
-  </si>
-  <si>
-    <t>STK11</t>
-  </si>
-  <si>
-    <t>Hypoxia and p53 in the Cardiovascular system_Homo sapiens_h_p53hypoxiaPathway</t>
-  </si>
-  <si>
-    <t>DNA IR-Double Strand Breaks (DSBs) and cellular response via ATM WP3959</t>
-  </si>
-  <si>
-    <t>YWHAB</t>
-  </si>
-  <si>
-    <t>TP53 Network WP1742</t>
-  </si>
-  <si>
-    <t>Neovascularisation processes WP4331</t>
-  </si>
-  <si>
-    <t>TAF9</t>
-  </si>
-  <si>
-    <t>G1 to S cell cycle control WP45</t>
-  </si>
-  <si>
-    <t>BMP Signaling Pathway in Eyelid Development WP3927</t>
-  </si>
-  <si>
-    <t>XRCC6</t>
-  </si>
-  <si>
-    <t>Oxidative stress response_Homo sapiens_P00046</t>
-  </si>
-  <si>
-    <t>MAPK13</t>
-  </si>
-  <si>
-    <t>COPS5</t>
-  </si>
-  <si>
-    <t>MAPK1</t>
-  </si>
-  <si>
-    <t>Cell Cycle WP179</t>
+    <t>Primary Focal Segmental Glomerulosclerosis FSGS WP2572</t>
+  </si>
+  <si>
+    <t>SHC1</t>
+  </si>
+  <si>
+    <t>MDM2</t>
   </si>
   <si>
     <t>7/65</t>
@@ -566,226 +635,271 @@
     <t>8/128</t>
   </si>
   <si>
+    <t>11/295</t>
+  </si>
+  <si>
+    <t>11/351</t>
+  </si>
+  <si>
+    <t>3/16</t>
+  </si>
+  <si>
     <t>6/107</t>
   </si>
   <si>
-    <t>3/16</t>
+    <t>10/354</t>
+  </si>
+  <si>
+    <t>3/15</t>
   </si>
   <si>
     <t>6/126</t>
   </si>
   <si>
+    <t>3/21</t>
+  </si>
+  <si>
+    <t>3/20</t>
+  </si>
+  <si>
+    <t>6/151</t>
+  </si>
+  <si>
+    <t>4/19</t>
+  </si>
+  <si>
+    <t>5/82</t>
+  </si>
+  <si>
+    <t>3/25</t>
+  </si>
+  <si>
+    <t>3/24</t>
+  </si>
+  <si>
+    <t>10/398</t>
+  </si>
+  <si>
+    <t>9/338</t>
+  </si>
+  <si>
+    <t>3/32</t>
+  </si>
+  <si>
+    <t>4/71</t>
+  </si>
+  <si>
+    <t>7/201</t>
+  </si>
+  <si>
+    <t>6/164</t>
+  </si>
+  <si>
+    <t>7/246</t>
+  </si>
+  <si>
+    <t>4/68</t>
+  </si>
+  <si>
     <t>7/161</t>
   </si>
   <si>
-    <t>3/15</t>
-  </si>
-  <si>
-    <t>4/19</t>
-  </si>
-  <si>
-    <t>9/351</t>
+    <t>7/221</t>
+  </si>
+  <si>
+    <t>9/337</t>
+  </si>
+  <si>
+    <t>3/31</t>
+  </si>
+  <si>
+    <t>11/540</t>
+  </si>
+  <si>
+    <t>14/812</t>
+  </si>
+  <si>
+    <t>8/340</t>
+  </si>
+  <si>
+    <t>4/91</t>
   </si>
   <si>
     <t>3/26</t>
   </si>
   <si>
+    <t>3/44</t>
+  </si>
+  <si>
     <t>5/126</t>
   </si>
   <si>
+    <t>3/45</t>
+  </si>
+  <si>
+    <t>4/87</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>7/245</t>
+  </si>
+  <si>
+    <t>3/43</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
     <t>3/22</t>
   </si>
   <si>
+    <t>5/141</t>
+  </si>
+  <si>
     <t>5/120</t>
   </si>
   <si>
+    <t>5/62</t>
+  </si>
+  <si>
+    <t>3/50</t>
+  </si>
+  <si>
+    <t>5/139</t>
+  </si>
+  <si>
     <t>5/137</t>
   </si>
   <si>
     <t>3/46</t>
   </si>
   <si>
-    <t>8/338</t>
+    <t>6/209</t>
+  </si>
+  <si>
+    <t>2/17</t>
+  </si>
+  <si>
+    <t>7/303</t>
+  </si>
+  <si>
+    <t>3/53</t>
+  </si>
+  <si>
+    <t>3/55</t>
+  </si>
+  <si>
+    <t>2/19</t>
+  </si>
+  <si>
+    <t>8/375</t>
+  </si>
+  <si>
+    <t>6/222</t>
+  </si>
+  <si>
+    <t>8/330</t>
+  </si>
+  <si>
+    <t>5/64</t>
+  </si>
+  <si>
+    <t>4/77</t>
+  </si>
+  <si>
+    <t>6/231</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>5/169</t>
+  </si>
+  <si>
+    <t>6/186</t>
+  </si>
+  <si>
+    <t>5/175</t>
+  </si>
+  <si>
+    <t>5/168</t>
+  </si>
+  <si>
+    <t>5/173</t>
+  </si>
+  <si>
+    <t>4/37</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3/64</t>
+  </si>
+  <si>
+    <t>7/328</t>
+  </si>
+  <si>
+    <t>4/120</t>
+  </si>
+  <si>
+    <t>2/20</t>
+  </si>
+  <si>
+    <t>3/66</t>
+  </si>
+  <si>
+    <t>6/206</t>
+  </si>
+  <si>
+    <t>3/68</t>
+  </si>
+  <si>
+    <t>3/62</t>
+  </si>
+  <si>
+    <t>2/22</t>
+  </si>
+  <si>
+    <t>5/198</t>
   </si>
   <si>
     <t>6/239</t>
   </si>
   <si>
-    <t>6/245</t>
-  </si>
-  <si>
-    <t>6/222</t>
-  </si>
-  <si>
-    <t>8/398</t>
-  </si>
-  <si>
-    <t>5/175</t>
-  </si>
-  <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <t>8/375</t>
-  </si>
-  <si>
-    <t>6/221</t>
-  </si>
-  <si>
-    <t>5/64</t>
-  </si>
-  <si>
-    <t>6/209</t>
-  </si>
-  <si>
-    <t>4/71</t>
-  </si>
-  <si>
-    <t>3/43</t>
-  </si>
-  <si>
-    <t>10/540</t>
+    <t>2/24</t>
   </si>
   <si>
     <t>6/263</t>
   </si>
   <si>
-    <t>8/295</t>
-  </si>
-  <si>
-    <t>4/68</t>
-  </si>
-  <si>
-    <t>3/45</t>
-  </si>
-  <si>
-    <t>3/44</t>
-  </si>
-  <si>
-    <t>8/354</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3/62</t>
-  </si>
-  <si>
-    <t>5/169</t>
-  </si>
-  <si>
-    <t>6/186</t>
-  </si>
-  <si>
-    <t>4/82</t>
-  </si>
-  <si>
-    <t>7/337</t>
-  </si>
-  <si>
-    <t>5/151</t>
-  </si>
-  <si>
-    <t>4/87</t>
+    <t>4/93</t>
+  </si>
+  <si>
+    <t>4/129</t>
+  </si>
+  <si>
+    <t>3/56</t>
   </si>
   <si>
     <t>3/70</t>
   </si>
   <si>
-    <t>3/69</t>
-  </si>
-  <si>
-    <t>2/22</t>
-  </si>
-  <si>
-    <t>2/14</t>
-  </si>
-  <si>
-    <t>6/180</t>
-  </si>
-  <si>
-    <t>2/18</t>
-  </si>
-  <si>
-    <t>4/128</t>
-  </si>
-  <si>
-    <t>2/21</t>
-  </si>
-  <si>
-    <t>2/13</t>
-  </si>
-  <si>
-    <t>2/11</t>
-  </si>
-  <si>
-    <t>4/77</t>
-  </si>
-  <si>
-    <t>2/23</t>
-  </si>
-  <si>
-    <t>4/124</t>
-  </si>
-  <si>
-    <t>4/93</t>
+    <t>7/332</t>
   </si>
   <si>
     <t>3/72</t>
   </si>
   <si>
-    <t>3/56</t>
-  </si>
-  <si>
-    <t>2/17</t>
-  </si>
-  <si>
     <t>5/195</t>
   </si>
   <si>
-    <t>2/25</t>
-  </si>
-  <si>
-    <t>3/55</t>
-  </si>
-  <si>
-    <t>11/812</t>
-  </si>
-  <si>
-    <t>2/19</t>
-  </si>
-  <si>
-    <t>4/122</t>
-  </si>
-  <si>
-    <t>3/64</t>
-  </si>
-  <si>
-    <t>2/20</t>
-  </si>
-  <si>
-    <t>6/250</t>
-  </si>
-  <si>
-    <t>6/296</t>
-  </si>
-  <si>
-    <t>4/141</t>
-  </si>
-  <si>
-    <t>2/24</t>
-  </si>
-  <si>
-    <t>4/139</t>
-  </si>
-  <si>
-    <t>4/132</t>
-  </si>
-  <si>
-    <t>6/326</t>
-  </si>
-  <si>
-    <t>4/120</t>
+    <t>5/196</t>
+  </si>
+  <si>
+    <t>5/197</t>
   </si>
   <si>
     <t>MAGI1;CEBPA;NOTCH1;MAX;PRKDC;ATM;TP53</t>
@@ -794,193 +908,256 @@
     <t>CEBPA;NOTCH1;MMP16;LRP1;PRKDC;ATM;LPA;TP53</t>
   </si>
   <si>
+    <t>MAP2K3;ANGPT1;MAX;ERBB4;KDR;VEGFC;FLNC;CACNA1F;TP53;CACNA1E;EGFR</t>
+  </si>
+  <si>
+    <t>EPHA5;SPTA1;CDKN1B;PRKDC;ERBB4;EPB41L3;ATM;FLNC;MKI67;TP53;EGFR</t>
+  </si>
+  <si>
+    <t>TRRAP;ATM;TP53</t>
+  </si>
+  <si>
     <t>SMAD1;NOTCH1;TRRAP;MAX;PRKDC;TP53</t>
   </si>
   <si>
-    <t>TRRAP;ATM;TP53</t>
+    <t>MAGI1;STK11;CDKN1B;ANGPT1;LAMC3;ERBB4;KDR;VEGFC;TP53;EGFR</t>
+  </si>
+  <si>
+    <t>CDKN1B;ATM;TP53</t>
   </si>
   <si>
     <t>LRP1;TRRAP;MAX;PRKDC;ATM;TP53</t>
   </si>
   <si>
+    <t>SMAD1;KDR;CXCR4</t>
+  </si>
+  <si>
+    <t>SMAD1;NOTCH1;EGFR</t>
+  </si>
+  <si>
+    <t>SMAD1;STK11;MAX;ATM;TP53;EGFR</t>
+  </si>
+  <si>
+    <t>SMAD1;TMEM2;ADAMTS9;EPN2</t>
+  </si>
+  <si>
+    <t>MAP2K3;CDKN1B;ATM;TP53;EGFR</t>
+  </si>
+  <si>
+    <t>CEBPA;SMAD1;ZNF423</t>
+  </si>
+  <si>
+    <t>SMAD1;ANGPT1;KDR</t>
+  </si>
+  <si>
+    <t>MAGI1;CEBPA;KIAA1109;AHCTF1;NOTCH1;TRRAP;KDR;ATM;PTPRK;EGFR</t>
+  </si>
+  <si>
+    <t>TRRAP;PRKDC;SI;EPB41L3;ANK2;MKI67;TP53;CARD11;EGFR</t>
+  </si>
+  <si>
+    <t>CEBPA;ERBB4;EGFR</t>
+  </si>
+  <si>
+    <t>CDKN1B;PRKDC;ATM;TP53</t>
+  </si>
+  <si>
+    <t>ERBB4;KDR;ANK2;ANK3;FLNC;TP53;EGFR</t>
+  </si>
+  <si>
+    <t>CRB1;NR5A2;PEG3;CNOT1;ATM;CFB</t>
+  </si>
+  <si>
+    <t>CDKN1B;ATM;SYNE2</t>
+  </si>
+  <si>
+    <t>MAP2K3;MAX;FLNC;CACNA1F;TP53;CACNA1E;EGFR</t>
+  </si>
+  <si>
     <t>SMAD1;STK11;PRKDC;EPB41L3;ATM;TP53;EPN2</t>
   </si>
   <si>
-    <t>CDKN1B;ATM;TP53</t>
-  </si>
-  <si>
-    <t>SMAD1;TMEM2;ADAMTS9;EPN2</t>
-  </si>
-  <si>
-    <t>EPHA5;SPTA1;CDKN1B;PRKDC;ERBB4;EPB41L3;ATM;MKI67;TP53</t>
+    <t>MAP2K3;ATF7IP;SMAD1;CEBPA;STK11;MAX;ZNF423</t>
+  </si>
+  <si>
+    <t>MAGI1;CEBPA;KIAA1109;AHCTF1;TRRAP;KDR;ATM;PTPRK;EGFR</t>
+  </si>
+  <si>
+    <t>AHCTF1;TP53;EGFR</t>
+  </si>
+  <si>
+    <t>SMAD1;CEBPA;STK11;NOTCH1;CDKN1B;ERBB4;CXCR4;TP53;TRIOBP;EGFR;EPN2</t>
+  </si>
+  <si>
+    <t>ATF7IP;CDKN1B;LRP1;PRKDC;NRXN3;ANK2;ANK3;CACNA1E;LYST;EPN2;EPB41L3;MYH11;DYNC1I1;ASTN1</t>
+  </si>
+  <si>
+    <t>STK11;CDKN1B;ANGPT1;LAMC3;KDR;VEGFC;TP53;EGFR</t>
+  </si>
+  <si>
+    <t>CDKN1B;ERBB4;TP53;EGFR</t>
   </si>
   <si>
     <t>CEBPA;TRRAP;PRKDC;ATM;TP53</t>
   </si>
   <si>
+    <t>STK11;PRKDC;ATM</t>
+  </si>
+  <si>
+    <t>CDKN1B;PRKDC;TP53;SMC2</t>
+  </si>
+  <si>
+    <t>SMAD1;NOTCH1;VEGFC</t>
+  </si>
+  <si>
+    <t>ERBB4;EGFR</t>
+  </si>
+  <si>
+    <t>MAX;TRRAP;PRKDC</t>
+  </si>
+  <si>
+    <t>SMAD1;MAX</t>
+  </si>
+  <si>
     <t>PRKDC;ATM;TP53</t>
   </si>
   <si>
+    <t>CEBPA;NOTCH1;PRKDC;TP53;EGFR</t>
+  </si>
+  <si>
     <t>SMAD1;NOTCH1;MAX;PRKDC;TP53</t>
   </si>
   <si>
+    <t>NOTCH1;MUC17;ADAMTS12;ADAMTS9;MUC4</t>
+  </si>
+  <si>
+    <t>MAP2K3;TP53;EGFR</t>
+  </si>
+  <si>
+    <t>KDR;CXCR4;ATM;TP53;EGFR</t>
+  </si>
+  <si>
     <t>ZNF91;NOTCH1;PRKDC;ATM;SMC2</t>
   </si>
   <si>
     <t>MAGI1;TP53;EPN2</t>
   </si>
   <si>
-    <t>TRRAP;PRKDC;SI;EPB41L3;ANK2;MKI67;TP53;CARD11</t>
-  </si>
-  <si>
     <t>CEBPA;PRKDC;EPB41L3;ATM;TP53;DYNC1I1</t>
   </si>
   <si>
-    <t>MAP2K3;ATF7IP;SMAD1;CEBPA;STK11;MAX</t>
+    <t>NOTCH1;CXCR4</t>
+  </si>
+  <si>
+    <t>STK11;CDKN1B;ANGPT1;LAMC3;KDR;VEGFC;EGFR</t>
+  </si>
+  <si>
+    <t>NOTCH1;KDR;CXCR4</t>
+  </si>
+  <si>
+    <t>ATM;TP53</t>
+  </si>
+  <si>
+    <t>KDR;EGFR</t>
+  </si>
+  <si>
+    <t>MAGI1;STK11;CDKN1B;TRRAP;ANK2;TP53;DYNC1I1;EPN2</t>
   </si>
   <si>
     <t>STK11;PRKDC;EPB41L3;ATM;TP53;EPN2</t>
   </si>
   <si>
-    <t>MAGI1;CEBPA;KIAA1109;AHCTF1;NOTCH1;TRRAP;ATM;PTPRK</t>
+    <t>MAGI1;NOTCH1;CDKN1B;LAMC3;UBR4;ATM;TP53;EGFR</t>
+  </si>
+  <si>
+    <t>CDKN1B;PRKDC;CNOT1;ATM;TP53</t>
+  </si>
+  <si>
+    <t>PRKDC;ATM;MKI67;TP53</t>
+  </si>
+  <si>
+    <t>STK11;PRKDC;KDR;ATM;TP53;EGFR</t>
+  </si>
+  <si>
+    <t>SMAD1;TP53</t>
+  </si>
+  <si>
+    <t>NOTCH1;PRKDC;NLRC5;ATM;TP53</t>
+  </si>
+  <si>
+    <t>SMAD1;CEBPA;CDKN1B;MAX;ATM;TP53</t>
+  </si>
+  <si>
+    <t>MMP16;ERBB4;VEGFC;MUC4;EGFR</t>
+  </si>
+  <si>
+    <t>SIGLEC12;ERBB4;KDR;CXCR4;EGFR</t>
+  </si>
+  <si>
+    <t>NR5A2;SIGLEC12;KDR;CXCR4;EGFR</t>
+  </si>
+  <si>
+    <t>EPB41L3;CXCR4;ANK2;ANK3</t>
+  </si>
+  <si>
+    <t>MAX;TP53</t>
+  </si>
+  <si>
+    <t>MAP2K3;SMAD1;CEBPA;NOTCH1;MAX;ANK3;TP53</t>
+  </si>
+  <si>
+    <t>SMAD1;UBR4</t>
+  </si>
+  <si>
+    <t>CDKN1B;ERBB4;EGFR</t>
+  </si>
+  <si>
+    <t>MAGI1;MAP2K3;ANGPT1;KDR;VEGFC;EGFR</t>
   </si>
   <si>
     <t>ATF7IP;NOTCH1;TRRAP;MAX;TP53</t>
   </si>
   <si>
-    <t>SMAD1;MAX</t>
-  </si>
-  <si>
-    <t>MAGI1;STK11;CDKN1B;TRRAP;ANK2;TP53;DYNC1I1;EPN2</t>
-  </si>
-  <si>
-    <t>CDKN1B;PRKDC;CNOT1;ATM;TP53</t>
-  </si>
-  <si>
-    <t>CDKN1B;PRKDC;ATM;TP53</t>
-  </si>
-  <si>
-    <t>MAX;TRRAP;PRKDC</t>
-  </si>
-  <si>
-    <t>SMAD1;CEBPA;STK11;NOTCH1;CDKN1B;ERBB4;CXCR4;TP53;TRIOBP;EPN2</t>
+    <t>ANGPT1;TP53;EGFR</t>
+  </si>
+  <si>
+    <t>CEBPA;CDKN1B</t>
+  </si>
+  <si>
+    <t>ATF7IP;TRRAP;TP53</t>
+  </si>
+  <si>
+    <t>TP53;SMC2</t>
+  </si>
+  <si>
+    <t>LAMC3;KDR;VEGFC;FLNC;EGFR</t>
+  </si>
+  <si>
+    <t>ATF7IP;EGFR</t>
   </si>
   <si>
     <t>ATF7IP;PRKDC;MYH11;ATM;TP53;TUBB4A</t>
   </si>
   <si>
-    <t>MAP2K3;ANGPT1;MAX;ERBB4;VEGFC;CACNA1F;TP53;CACNA1E</t>
-  </si>
-  <si>
-    <t>STK11;PRKDC;ATM</t>
-  </si>
-  <si>
-    <t>MAGI1;STK11;CDKN1B;ANGPT1;LAMC3;ERBB4;VEGFC;TP53</t>
-  </si>
-  <si>
-    <t>MAX;TP53</t>
-  </si>
-  <si>
-    <t>ATF7IP;TRRAP;TP53</t>
-  </si>
-  <si>
-    <t>NOTCH1;PRKDC;NLRC5;ATM;TP53</t>
-  </si>
-  <si>
-    <t>SMAD1;CEBPA;CDKN1B;MAX;ATM;TP53</t>
-  </si>
-  <si>
-    <t>SMAD1;NOTCH1;VEGFC</t>
-  </si>
-  <si>
-    <t>MAP2K3;CDKN1B;ATM;TP53</t>
-  </si>
-  <si>
-    <t>MAGI1;CEBPA;KIAA1109;AHCTF1;TRRAP;ATM;PTPRK</t>
-  </si>
-  <si>
-    <t>SMAD1;STK11;MAX;ATM;TP53</t>
-  </si>
-  <si>
-    <t>CDKN1B;PRKDC;TP53;SMC2</t>
-  </si>
-  <si>
-    <t>TP53;SMC2</t>
-  </si>
-  <si>
-    <t>ATM;TP53</t>
-  </si>
-  <si>
-    <t>STK11;LRP1;PRKDC;ATM;TP53;EPN2</t>
-  </si>
-  <si>
-    <t>MAX;EPB41L3;ANK2;TP53</t>
-  </si>
-  <si>
-    <t>SMAD1;TP53</t>
-  </si>
-  <si>
-    <t>PRKDC;ATM;MKI67;TP53</t>
-  </si>
-  <si>
-    <t>STK11;CDKN1B</t>
-  </si>
-  <si>
-    <t>CEBPA;CDKN1B</t>
-  </si>
-  <si>
-    <t>SMAD1;CDKN1B;CNOT1;TP53</t>
-  </si>
-  <si>
     <t>CDKN1B;LAMC3;MAX;TP53</t>
   </si>
   <si>
-    <t>PRKDC;TP53;EPN2</t>
+    <t>CLTCL1;TIMD4;FLNC;EGFR</t>
   </si>
   <si>
     <t>MAP2K3;CEBPA;MAX</t>
   </si>
   <si>
-    <t>SMAD1;CDKN1B</t>
-  </si>
-  <si>
-    <t>NOTCH1;CXCR4</t>
-  </si>
-  <si>
-    <t>MAX;PRKDC;EPB41L3;ANK2;TP53</t>
-  </si>
-  <si>
-    <t>STK11;TP53</t>
-  </si>
-  <si>
-    <t>ATF7IP;CDKN1B;LRP1;PRKDC;EPB41L3;ANK2;MYH11;CACNA1E;DYNC1I1;ASTN1;EPN2</t>
-  </si>
-  <si>
-    <t>SMAD1;CXCR4</t>
-  </si>
-  <si>
-    <t>TRRAP;MAX;ANK2;TP53</t>
-  </si>
-  <si>
-    <t>SMAD1;NOTCH1</t>
-  </si>
-  <si>
-    <t>TRRAP;PRKDC;EPB41L3;ANK2;TP53;CARD11</t>
-  </si>
-  <si>
-    <t>CEBPA;NOTCH1;PRKDC;TP53</t>
-  </si>
-  <si>
-    <t>MAP2K3;MAX</t>
-  </si>
-  <si>
-    <t>MAP2K3;MAX;TP53;CACNA1E</t>
-  </si>
-  <si>
-    <t>CDKN1B;MAX;TP53;CARD11</t>
-  </si>
-  <si>
-    <t>SMAD1;CEBPA;AHCTF1;CDKN1B;TP53;ATG2B</t>
+    <t>STK11;CDKN1B;TRRAP;ANK2;TP53;DYNC1I1;EPN2</t>
+  </si>
+  <si>
+    <t>CDKN1B;NOTCH1;MKI67</t>
+  </si>
+  <si>
+    <t>SPTA1;LRP1;ERBB4;KDR;EGFR</t>
+  </si>
+  <si>
+    <t>PRKDC;PYHIN1;ATM;C1ORF173;TP53</t>
   </si>
 </sst>
 </file>
@@ -1066,28 +1243,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="E2" t="n">
-        <v>1.028833533957557E-7</v>
+        <v>3.8696560384303475E-7</v>
       </c>
       <c r="F2" t="n">
-        <v>4.856094280279669E-5</v>
+        <v>1.826477650139124E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>18.408941485864563</v>
+        <v>15.167930660888407</v>
       </c>
       <c r="H2" t="n">
-        <v>296.19379322133</v>
+        <v>223.9534348597533</v>
       </c>
       <c r="I2" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="J2" t="n">
         <v>7.0</v>
@@ -1098,28 +1275,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="E3" t="n">
-        <v>8.588571416709582E-7</v>
+        <v>3.6973882668630833E-6</v>
       </c>
       <c r="F3" t="n">
-        <v>3.306599995433189E-4</v>
+        <v>0.001423494482742287</v>
       </c>
       <c r="G3" t="n">
-        <v>10.683760683760683</v>
+        <v>8.80281690140845</v>
       </c>
       <c r="H3" t="n">
-        <v>149.22717133023482</v>
+        <v>110.1046114558196</v>
       </c>
       <c r="I3" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="J3" t="n">
         <v>8.0</v>
@@ -1130,31 +1307,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="E4" t="n">
-        <v>3.936230716537919E-5</v>
+        <v>8.595130812341604E-6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.011296982156463829</v>
+        <v>0.0026473002902012138</v>
       </c>
       <c r="G4" t="n">
-        <v>9.58543014617781</v>
+        <v>5.25185008355216</v>
       </c>
       <c r="H4" t="n">
-        <v>97.22216027310373</v>
+        <v>61.25923212998431</v>
       </c>
       <c r="I4" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="J4" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
@@ -1162,31 +1339,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0335505652991296E-4</v>
+        <v>4.279610806286669E-5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01483145061204251</v>
+        <v>0.008238250802101837</v>
       </c>
       <c r="G5" t="n">
-        <v>32.05128205128205</v>
+        <v>4.413948075919907</v>
       </c>
       <c r="H5" t="n">
-        <v>294.1455239347511</v>
+        <v>44.400183507419285</v>
       </c>
       <c r="I5" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="J5" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
@@ -1194,31 +1371,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="E6" t="n">
-        <v>9.803847337705179E-5</v>
+        <v>1.8336981245399282E-4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01887240612508247</v>
+        <v>0.02631356808714797</v>
       </c>
       <c r="G6" t="n">
-        <v>8.14000814000814</v>
+        <v>26.408450704225352</v>
       </c>
       <c r="H6" t="n">
-        <v>75.13350078026129</v>
+        <v>227.21845804165645</v>
       </c>
       <c r="I6" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="J6" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -1226,31 +1403,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="E7" t="n">
-        <v>4.541103441684271E-5</v>
+        <v>1.1560702777436512E-4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01943592273040868</v>
+        <v>0.033179216971242785</v>
       </c>
       <c r="G7" t="n">
-        <v>7.432181345224823</v>
+        <v>7.897854416216927</v>
       </c>
       <c r="H7" t="n">
-        <v>74.3199957905568</v>
+        <v>71.59652870615753</v>
       </c>
       <c r="I7" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="J7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -1258,31 +1435,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="E8" t="n">
-        <v>8.433534984962132E-5</v>
+        <v>2.2359481877213972E-4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01990314256451063</v>
+        <v>0.03443360209090952</v>
       </c>
       <c r="G8" t="n">
-        <v>34.18803418803419</v>
+        <v>3.9786743057213334</v>
       </c>
       <c r="H8" t="n">
-        <v>320.7080152796718</v>
+        <v>33.44344310022934</v>
       </c>
       <c r="I8" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="J8" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1467,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="E9" t="n">
-        <v>4.0282933833237015E-6</v>
+        <v>1.4976557533111212E-4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02055638113510085</v>
+        <v>0.03534467577814246</v>
       </c>
       <c r="G9" t="n">
-        <v>35.98740440845704</v>
+        <v>28.169014084507044</v>
       </c>
       <c r="H9" t="n">
-        <v>447.0415744410723</v>
+        <v>248.06871316868646</v>
       </c>
       <c r="I9" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="J9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -1322,31 +1499,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="E10" t="n">
-        <v>2.230998670182201E-4</v>
+        <v>2.8223151651923356E-4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.028631149600671577</v>
+        <v>0.036219711286634974</v>
       </c>
       <c r="G10" t="n">
-        <v>4.383081306158229</v>
+        <v>6.706908115358819</v>
       </c>
       <c r="H10" t="n">
-        <v>36.85247009682018</v>
+        <v>54.81410357667143</v>
       </c>
       <c r="I10" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="J10" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -1354,28 +1531,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="E11" t="n">
-        <v>4.598272766194364E-4</v>
+        <v>4.243239046285572E-4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.054489532279403216</v>
+        <v>0.0400561765969358</v>
       </c>
       <c r="G11" t="n">
-        <v>19.723865877712033</v>
+        <v>20.120724346076457</v>
       </c>
       <c r="H11" t="n">
-        <v>151.5711957515469</v>
+        <v>156.23769554053368</v>
       </c>
       <c r="I11" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="J11" t="n">
         <v>3.0</v>
@@ -1386,31 +1563,31 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="E12" t="n">
-        <v>8.744583326933008E-4</v>
+        <v>3.6560164660306976E-4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06274238537074434</v>
+        <v>0.04314099429916223</v>
       </c>
       <c r="G12" t="n">
-        <v>6.7833401166734495</v>
+        <v>21.12676056338028</v>
       </c>
       <c r="H12" t="n">
-        <v>47.7676428683131</v>
+        <v>167.19646932162047</v>
       </c>
       <c r="I12" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="J12" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -1418,31 +1595,31 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="E13" t="n">
-        <v>2.77042121053201E-4</v>
+        <v>7.38424942733393E-4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06565898268960864</v>
+        <v>0.04356707162127019</v>
       </c>
       <c r="G13" t="n">
-        <v>23.310023310023308</v>
+        <v>5.596492864471598</v>
       </c>
       <c r="H13" t="n">
-        <v>190.94034969168345</v>
+        <v>40.35626021404564</v>
       </c>
       <c r="I13" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="J13" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -1450,31 +1627,31 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="E14" t="n">
-        <v>7.015732343923029E-4</v>
+        <v>8.689556972828306E-6</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06711717275686364</v>
+        <v>0.04434280923234284</v>
       </c>
       <c r="G14" t="n">
-        <v>7.1225071225071215</v>
+        <v>29.651593773165303</v>
       </c>
       <c r="H14" t="n">
-        <v>51.724966289300845</v>
+        <v>345.5415448850742</v>
       </c>
       <c r="I14" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="J14" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -1482,28 +1659,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0012713244504996642</v>
+        <v>2.957682915094354E-4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07297402345868073</v>
+        <v>0.0465342111974845</v>
       </c>
       <c r="G15" t="n">
-        <v>6.238692370079231</v>
+        <v>8.588114050154585</v>
       </c>
       <c r="H15" t="n">
-        <v>41.59770445765919</v>
+        <v>69.78644975216343</v>
       </c>
       <c r="I15" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="J15" t="n">
         <v>5.0</v>
@@ -1514,28 +1691,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002465956509511582</v>
+        <v>7.187053926051964E-4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0786366131366471</v>
+        <v>0.048461277901378955</v>
       </c>
       <c r="G16" t="n">
-        <v>11.148272017837234</v>
+        <v>16.901408450704224</v>
       </c>
       <c r="H16" t="n">
-        <v>66.94733010525182</v>
+        <v>122.33339206041131</v>
       </c>
       <c r="I16" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="J16" t="n">
         <v>3.0</v>
@@ -1546,31 +1723,31 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="E17" t="n">
-        <v>8.46342209431489E-4</v>
+        <v>6.357527146826035E-4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08146043765778081</v>
+        <v>0.05001254688836481</v>
       </c>
       <c r="G17" t="n">
-        <v>4.045921205684519</v>
+        <v>17.6056338028169</v>
       </c>
       <c r="H17" t="n">
-        <v>28.62322066362487</v>
+        <v>129.58980428915157</v>
       </c>
       <c r="I17" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="J17" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -1578,31 +1755,31 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002839392136679273</v>
+        <v>5.624212908865303E-4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08149055432269513</v>
+        <v>0.05380497016147806</v>
       </c>
       <c r="G18" t="n">
-        <v>4.291385044523119</v>
+        <v>3.5388208648878194</v>
       </c>
       <c r="H18" t="n">
-        <v>25.165391207375237</v>
+        <v>26.48191436403593</v>
       </c>
       <c r="I18" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="J18" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="19">
@@ -1610,31 +1787,31 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0032083922315751215</v>
+        <v>7.059078052289223E-4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08370987004200545</v>
+        <v>0.05435490100262701</v>
       </c>
       <c r="G19" t="n">
-        <v>4.1862899005756145</v>
+        <v>3.750312526043837</v>
       </c>
       <c r="H19" t="n">
-        <v>24.03761519519145</v>
+        <v>27.21236488392153</v>
       </c>
       <c r="I19" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="J19" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
@@ -1642,31 +1819,31 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0019656472522966272</v>
+        <v>0.0014946590132675721</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08408602134824461</v>
+        <v>0.058789921188524503</v>
       </c>
       <c r="G20" t="n">
-        <v>4.62000462000462</v>
+        <v>13.204225352112676</v>
       </c>
       <c r="H20" t="n">
-        <v>28.791562473625792</v>
+        <v>85.90480435201094</v>
       </c>
       <c r="I20" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="J20" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -1674,31 +1851,31 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002373865867394766</v>
+        <v>0.0016372174412522206</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08516243799278723</v>
+        <v>0.059443587097772935</v>
       </c>
       <c r="G21" t="n">
-        <v>3.435983335480823</v>
+        <v>7.934933544931561</v>
       </c>
       <c r="H21" t="n">
-        <v>20.764456419076776</v>
+        <v>50.90067177389139</v>
       </c>
       <c r="I21" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="J21" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
@@ -1706,31 +1883,31 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0036885401544358215</v>
+        <v>5.910328748887786E-4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08821758536025674</v>
+        <v>0.06067937515524794</v>
       </c>
       <c r="G22" t="n">
-        <v>4.8840048840048835</v>
+        <v>4.905052203769883</v>
       </c>
       <c r="H22" t="n">
-        <v>27.362757124849256</v>
+        <v>36.46238694811247</v>
       </c>
       <c r="I22" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="J22" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="23">
@@ -1738,31 +1915,31 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002155228062936555</v>
+        <v>0.0011335806121471042</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08836435058039875</v>
+        <v>0.06234693366809073</v>
       </c>
       <c r="G23" t="n">
-        <v>28.490028490028486</v>
+        <v>5.152868430092751</v>
       </c>
       <c r="H23" t="n">
-        <v>174.92475018111267</v>
+        <v>34.9486807246936</v>
       </c>
       <c r="I23" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="J23" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
@@ -1770,31 +1947,31 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0016396272436412281</v>
+        <v>0.0014946590132675721</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09017949840026754</v>
+        <v>0.06413445947839037</v>
       </c>
       <c r="G24" t="n">
-        <v>3.6467236467236464</v>
+        <v>13.204225352112676</v>
       </c>
       <c r="H24" t="n">
-        <v>23.387482998310972</v>
+        <v>85.90480435201094</v>
       </c>
       <c r="I24" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="J24" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
@@ -1802,31 +1979,31 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0019215308471193572</v>
+        <v>0.0019056279024874069</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09247367201761907</v>
+        <v>0.06424688356957543</v>
       </c>
       <c r="G25" t="n">
-        <v>4.640909618285184</v>
+        <v>4.0077865567388065</v>
       </c>
       <c r="H25" t="n">
-        <v>29.027186886748638</v>
+        <v>25.10054163503396</v>
       </c>
       <c r="I25" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="J25" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="26">
@@ -1834,31 +2011,31 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="E26" t="n">
-        <v>3.6393493574505854E-5</v>
+        <v>0.0013949278162166416</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09285799885535169</v>
+        <v>0.06584059292542548</v>
       </c>
       <c r="G26" t="n">
-        <v>13.354700854700853</v>
+        <v>8.285004142502071</v>
       </c>
       <c r="H26" t="n">
-        <v>136.5000073083872</v>
+        <v>54.47317820791365</v>
       </c>
       <c r="I26" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="J26" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
@@ -1866,31 +2043,31 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0014486205427360016</v>
+        <v>1.5392817338392533E-4</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09295315149222677</v>
+        <v>0.06588125820832004</v>
       </c>
       <c r="G27" t="n">
-        <v>4.90737332842596</v>
+        <v>6.12369871402327</v>
       </c>
       <c r="H27" t="n">
-        <v>32.08020377969509</v>
+        <v>53.760100863134845</v>
       </c>
       <c r="I27" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="J27" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="28">
@@ -1898,31 +2075,31 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E28" t="n">
-        <v>7.990371399672889E-4</v>
+        <v>0.0010312552324038655</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09428638251614009</v>
+        <v>0.0661722107459147</v>
       </c>
       <c r="G28" t="n">
-        <v>9.630432165643434</v>
+        <v>4.461156076731884</v>
       </c>
       <c r="H28" t="n">
-        <v>68.68523539391227</v>
+        <v>30.67927463219334</v>
       </c>
       <c r="I28" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="J28" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="29">
@@ -1930,31 +2107,31 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0020304304736449906</v>
+        <v>6.912124488969875E-4</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09712225765601872</v>
+        <v>0.06652919820633504</v>
       </c>
       <c r="G29" t="n">
-        <v>11.926058437686343</v>
+        <v>3.7614410498599904</v>
       </c>
       <c r="H29" t="n">
-        <v>73.93568816250898</v>
+        <v>27.37224473219237</v>
       </c>
       <c r="I29" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="J29" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="30">
@@ -1962,31 +2139,31 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001277317502933358</v>
+        <v>0.0013615694432870852</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09835344772586856</v>
+        <v>0.07140675302572269</v>
       </c>
       <c r="G30" t="n">
-        <v>3.1655587211142766</v>
+        <v>13.630168105406632</v>
       </c>
       <c r="H30" t="n">
-        <v>21.092095919397995</v>
+        <v>89.94707735801222</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="J30" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
@@ -1994,31 +2171,31 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004531435061253633</v>
+        <v>0.0016613037366633716</v>
       </c>
       <c r="F31" t="n">
-        <v>0.10004014327536866</v>
+        <v>0.07995024232692476</v>
       </c>
       <c r="G31" t="n">
-        <v>3.8997757628936336</v>
+        <v>2.8690662493479397</v>
       </c>
       <c r="H31" t="n">
-        <v>21.045984592340897</v>
+        <v>18.362461819163205</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="J31" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="32">
@@ -2026,31 +2203,31 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="E32" t="n">
-        <v>3.4630262375233336E-4</v>
+        <v>0.001939928093795806</v>
       </c>
       <c r="F32" t="n">
-        <v>0.10666120811571868</v>
+        <v>0.08298581290126503</v>
       </c>
       <c r="G32" t="n">
-        <v>4.635665652614805</v>
+        <v>2.4283632831471587</v>
       </c>
       <c r="H32" t="n">
-        <v>36.93789960332431</v>
+        <v>15.165382155530681</v>
       </c>
       <c r="I32" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="J32" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="33">
@@ -2058,31 +2235,31 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="E33" t="n">
-        <v>6.78792668290459E-4</v>
+        <v>0.003005580227245112</v>
       </c>
       <c r="F33" t="n">
-        <v>0.10679671314436555</v>
+        <v>0.09457559115064619</v>
       </c>
       <c r="G33" t="n">
-        <v>10.055304172951232</v>
+        <v>3.314001657000828</v>
       </c>
       <c r="H33" t="n">
-        <v>73.35540297283956</v>
+        <v>19.245350927470835</v>
       </c>
       <c r="I33" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="J33" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="34">
@@ -2090,31 +2267,31 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0023149250499843537</v>
+        <v>0.004038386781052715</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1092644623592615</v>
+        <v>0.09530592803284407</v>
       </c>
       <c r="G34" t="n">
-        <v>11.396011396011396</v>
+        <v>6.190992106485064</v>
       </c>
       <c r="H34" t="n">
-        <v>69.1553044761794</v>
+        <v>34.124191167780886</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="J34" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
@@ -2122,28 +2299,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0021697769326653868</v>
+        <v>8.082439707345219E-4</v>
       </c>
       <c r="F35" t="n">
-        <v>0.11379274580200696</v>
+        <v>0.09577691053204085</v>
       </c>
       <c r="G35" t="n">
-        <v>11.655011655011654</v>
+        <v>16.251354279523294</v>
       </c>
       <c r="H35" t="n">
-        <v>71.48171226946822</v>
+        <v>115.72015061279609</v>
       </c>
       <c r="I35" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="J35" t="n">
         <v>3.0</v>
@@ -2154,31 +2331,31 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0011387789621298888</v>
+        <v>0.0037509449724579935</v>
       </c>
       <c r="F36" t="n">
-        <v>0.11691464011200192</v>
+        <v>0.09835811261112072</v>
       </c>
       <c r="G36" t="n">
-        <v>3.8630547105123374</v>
+        <v>9.603072983354672</v>
       </c>
       <c r="H36" t="n">
-        <v>26.183007103960904</v>
+        <v>53.64034069867959</v>
       </c>
       <c r="I36" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="J36" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
@@ -2186,31 +2363,31 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0014807595211497864</v>
+        <v>0.0020645600365365594</v>
       </c>
       <c r="F37" t="n">
-        <v>0.11698000217083314</v>
+        <v>0.09875478841433209</v>
       </c>
       <c r="G37" t="n">
-        <v>34.18803418803419</v>
+        <v>5.589090096132349</v>
       </c>
       <c r="H37" t="n">
-        <v>222.74188488468297</v>
+        <v>34.55643937310736</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="J37" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
@@ -2218,28 +2395,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="E38" t="n">
-        <v>0.005741781185713838</v>
+        <v>0.003998193371367544</v>
       </c>
       <c r="F38" t="n">
-        <v>0.11770651430713368</v>
+        <v>0.09932354059397268</v>
       </c>
       <c r="G38" t="n">
-        <v>8.271298593879239</v>
+        <v>9.389671361502346</v>
       </c>
       <c r="H38" t="n">
-        <v>42.67978333901755</v>
+        <v>51.84894532439602</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="J38" t="n">
         <v>3.0</v>
@@ -2250,31 +2427,31 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003178190732994666</v>
+        <v>0.003437310860693806</v>
       </c>
       <c r="F39" t="n">
-        <v>0.12236034322029463</v>
+        <v>0.10140067039046728</v>
       </c>
       <c r="G39" t="n">
-        <v>5.057401507105649</v>
+        <v>6.475635421725756</v>
       </c>
       <c r="H39" t="n">
-        <v>29.087357487447854</v>
+        <v>36.73670610229465</v>
       </c>
       <c r="I39" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="J39" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40">
@@ -2282,31 +2459,31 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E40" t="n">
-        <v>7.948064208087822E-4</v>
+        <v>0.0037509449724579935</v>
       </c>
       <c r="F40" t="n">
-        <v>0.12240018880455247</v>
+        <v>0.10414388394118665</v>
       </c>
       <c r="G40" t="n">
-        <v>5.514199062586159</v>
+        <v>9.603072983354672</v>
       </c>
       <c r="H40" t="n">
-        <v>39.35711038763648</v>
+        <v>53.64034069867959</v>
       </c>
       <c r="I40" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="J40" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
@@ -2314,31 +2491,31 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0021697769326653868</v>
+        <v>4.935889129934685E-4</v>
       </c>
       <c r="F41" t="n">
-        <v>0.12801683902725783</v>
+        <v>0.10562802738060226</v>
       </c>
       <c r="G41" t="n">
-        <v>11.655011655011654</v>
+        <v>56.33802816901409</v>
       </c>
       <c r="H41" t="n">
-        <v>71.48171226946822</v>
+        <v>428.946904064557</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="J41" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -2346,31 +2523,31 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
         <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0013691992888051091</v>
+        <v>0.0018622349454800765</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1292524128632023</v>
+        <v>0.1068922858705564</v>
       </c>
       <c r="G42" t="n">
-        <v>8.338544923910778</v>
+        <v>4.0241448692152915</v>
       </c>
       <c r="H42" t="n">
-        <v>54.980439197265376</v>
+        <v>25.295685830943214</v>
       </c>
       <c r="I42" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="J42" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="43">
@@ -2378,31 +2555,31 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="E43" t="n">
-        <v>0.003698113353104165</v>
+        <v>0.0035132797852400685</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1294339673586458</v>
+        <v>0.11203458870709998</v>
       </c>
       <c r="G43" t="n">
-        <v>3.5506860432676453</v>
+        <v>9.826400262037339</v>
       </c>
       <c r="H43" t="n">
-        <v>19.883602149487736</v>
+        <v>55.53100490710073</v>
       </c>
       <c r="I43" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="J43" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
@@ -2410,31 +2587,31 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0019520779514464069</v>
+        <v>0.0031531149028135217</v>
       </c>
       <c r="F44" t="n">
-        <v>0.13162582758324343</v>
+        <v>0.1131179971384351</v>
       </c>
       <c r="G44" t="n">
-        <v>5.660270560932813</v>
+        <v>23.474178403755865</v>
       </c>
       <c r="H44" t="n">
-        <v>35.31364044628945</v>
+        <v>135.1963487489809</v>
       </c>
       <c r="I44" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="J44" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -2442,31 +2619,31 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0017039286222414202</v>
+        <v>4.887759572917396E-4</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1340423849496584</v>
+        <v>0.11583990187814228</v>
       </c>
       <c r="G45" t="n">
-        <v>7.85931820414579</v>
+        <v>19.206145966709343</v>
       </c>
       <c r="H45" t="n">
-        <v>50.101728969905324</v>
+        <v>146.4200961304733</v>
       </c>
       <c r="I45" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="J45" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -2474,31 +2651,31 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="E46" t="n">
-        <v>0.008034941665796535</v>
+        <v>0.003358706949376387</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1356487210637415</v>
+        <v>0.11755474322817355</v>
       </c>
       <c r="G46" t="n">
-        <v>7.326007326007326</v>
+        <v>4.994506043352312</v>
       </c>
       <c r="H46" t="n">
-        <v>35.340333625142065</v>
+        <v>28.449701406306634</v>
       </c>
       <c r="I46" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="J46" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="47">
@@ -2506,31 +2683,31 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E47" t="n">
-        <v>0.007723046540448921</v>
+        <v>0.0016664714858967357</v>
       </c>
       <c r="F47" t="n">
-        <v>0.13853214731930252</v>
+        <v>0.11956932911309079</v>
       </c>
       <c r="G47" t="n">
-        <v>7.432181345224823</v>
+        <v>5.868544600938966</v>
       </c>
       <c r="H47" t="n">
-        <v>36.14675855220662</v>
+        <v>37.54135428718213</v>
       </c>
       <c r="I47" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="J47" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="48">
@@ -2538,31 +2715,31 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0072609023659122255</v>
+        <v>7.857756207098248E-5</v>
       </c>
       <c r="F48" t="n">
-        <v>0.13892526526778726</v>
+        <v>0.12022366996860319</v>
       </c>
       <c r="G48" t="n">
-        <v>15.54001554001554</v>
+        <v>11.358473421172194</v>
       </c>
       <c r="H48" t="n">
-        <v>76.53847964325983</v>
+        <v>107.35375248884837</v>
       </c>
       <c r="I48" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="J48" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="49">
@@ -2570,31 +2747,31 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0029489727442681963</v>
+        <v>0.00538205391237852</v>
       </c>
       <c r="F49" t="n">
-        <v>0.13978130807831252</v>
+        <v>0.1209680688877458</v>
       </c>
       <c r="G49" t="n">
-        <v>24.42002442002442</v>
+        <v>8.450704225352112</v>
       </c>
       <c r="H49" t="n">
-        <v>142.27834900014244</v>
+        <v>44.152269376590816</v>
       </c>
       <c r="I49" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="J49" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="50">
@@ -2602,31 +2779,31 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E50" t="n">
-        <v>6.697476062939884E-4</v>
+        <v>0.003159216347938859</v>
       </c>
       <c r="F50" t="n">
-        <v>0.14332598774691352</v>
+        <v>0.12162982939564607</v>
       </c>
       <c r="G50" t="n">
-        <v>5.698005698005698</v>
+        <v>5.06636943965954</v>
       </c>
       <c r="H50" t="n">
-        <v>41.64449927963006</v>
+        <v>29.169273853971006</v>
       </c>
       <c r="I50" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="J50" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="51">
@@ -2634,31 +2811,31 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0048830318531226085</v>
+        <v>0.0029684187738790264</v>
       </c>
       <c r="F51" t="n">
-        <v>0.14465981864875727</v>
+        <v>0.12170516972904008</v>
       </c>
       <c r="G51" t="n">
-        <v>18.99335232668566</v>
+        <v>5.140331037318803</v>
       </c>
       <c r="H51" t="n">
-        <v>101.08241159838317</v>
+        <v>29.915317504419274</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="J51" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="52">
@@ -2666,31 +2843,31 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="E52" t="n">
-        <v>0.006802646343900725</v>
+        <v>0.004255139407122824</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1455766317594755</v>
+        <v>0.12212250098442505</v>
       </c>
       <c r="G52" t="n">
-        <v>5.3418803418803416</v>
+        <v>9.185548071034905</v>
       </c>
       <c r="H52" t="n">
-        <v>26.658352426739807</v>
+        <v>50.14967318765218</v>
       </c>
       <c r="I52" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="J52" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
@@ -2698,31 +2875,31 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="E53" t="n">
-        <v>0.006626003774756235</v>
+        <v>0.0038251963147584054</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1492594534524036</v>
+        <v>0.12272504843183217</v>
       </c>
       <c r="G53" t="n">
-        <v>16.28001628001628</v>
+        <v>4.043399150886178</v>
       </c>
       <c r="H53" t="n">
-        <v>81.67282711300058</v>
+        <v>22.50614794353055</v>
       </c>
       <c r="I53" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="J53" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="54">
@@ -2730,28 +2907,28 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="E54" t="n">
-        <v>0.00253736871444115</v>
+        <v>0.006348125039416992</v>
       </c>
       <c r="F54" t="n">
-        <v>0.15033909633063813</v>
+        <v>0.12484645910853416</v>
       </c>
       <c r="G54" t="n">
-        <v>26.298487836949377</v>
+        <v>16.570008285004143</v>
       </c>
       <c r="H54" t="n">
-        <v>157.1762701933982</v>
+        <v>83.83754397781732</v>
       </c>
       <c r="I54" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="J54" t="n">
         <v>2.0</v>
@@ -2762,31 +2939,31 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0018029056730844545</v>
+        <v>0.005978954485061112</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1543287256160293</v>
+        <v>0.12827575077040201</v>
       </c>
       <c r="G55" t="n">
-        <v>31.08003108003108</v>
+        <v>3.2538465114117043</v>
       </c>
       <c r="H55" t="n">
-        <v>196.37469006300162</v>
+        <v>16.658098327083103</v>
       </c>
       <c r="I55" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="J55" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="56">
@@ -2794,31 +2971,31 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0010833563392990272</v>
+        <v>0.00633410774943197</v>
       </c>
       <c r="F56" t="n">
-        <v>0.15455883773999454</v>
+        <v>0.12998690685790826</v>
       </c>
       <c r="G56" t="n">
-        <v>8.88000888000888</v>
+        <v>7.972362476747276</v>
       </c>
       <c r="H56" t="n">
-        <v>60.629959687051276</v>
+        <v>40.35455476800027</v>
       </c>
       <c r="I56" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="J56" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
@@ -2826,31 +3003,31 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00792220570991544</v>
+        <v>0.007021054881443627</v>
       </c>
       <c r="F57" t="n">
-        <v>0.15646356277082996</v>
+        <v>0.13255751616165568</v>
       </c>
       <c r="G57" t="n">
-        <v>14.864362690449646</v>
+        <v>7.682458386683738</v>
       </c>
       <c r="H57" t="n">
-        <v>71.91505928209108</v>
+        <v>38.09609580708024</v>
       </c>
       <c r="I57" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="J57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
@@ -2858,28 +3035,28 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="E58" t="n">
-        <v>0.006626003774756235</v>
+        <v>0.007908146852712305</v>
       </c>
       <c r="F58" t="n">
-        <v>0.15755164531087046</v>
+        <v>0.1382461227585262</v>
       </c>
       <c r="G58" t="n">
-        <v>16.28001628001628</v>
+        <v>14.825796886582651</v>
       </c>
       <c r="H58" t="n">
-        <v>81.67282711300058</v>
+        <v>71.75480806079281</v>
       </c>
       <c r="I58" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="J58" t="n">
         <v>2.0</v>
@@ -2890,28 +3067,28 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0014807595211497864</v>
+        <v>0.007908146852712305</v>
       </c>
       <c r="F59" t="n">
-        <v>0.15844126876302714</v>
+        <v>0.14356328132616183</v>
       </c>
       <c r="G59" t="n">
-        <v>34.18803418803419</v>
+        <v>14.825796886582651</v>
       </c>
       <c r="H59" t="n">
-        <v>222.74188488468297</v>
+        <v>71.75480806079281</v>
       </c>
       <c r="I59" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="J59" t="n">
         <v>2.0</v>
@@ -2922,31 +3099,31 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="E60" t="n">
-        <v>0.00792220570991544</v>
+        <v>0.00540015651588039</v>
       </c>
       <c r="F60" t="n">
-        <v>0.16146209732589564</v>
+        <v>0.14850430418671073</v>
       </c>
       <c r="G60" t="n">
-        <v>14.864362690449646</v>
+        <v>3.004694835680751</v>
       </c>
       <c r="H60" t="n">
-        <v>71.91505928209108</v>
+        <v>15.688495298132292</v>
       </c>
       <c r="I60" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="J60" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="61">
@@ -2954,31 +3131,31 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0048830318531226085</v>
+        <v>0.005121586537327145</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16532550702715115</v>
+        <v>0.1516777551439193</v>
       </c>
       <c r="G61" t="n">
-        <v>18.99335232668566</v>
+        <v>3.806623524933384</v>
       </c>
       <c r="H61" t="n">
-        <v>101.08241159838317</v>
+        <v>20.077240264023533</v>
       </c>
       <c r="I61" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="J61" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="62">
@@ -2986,31 +3163,31 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E62" t="n">
-        <v>0.006626003774756235</v>
+        <v>0.0025041990596781547</v>
       </c>
       <c r="F62" t="n">
-        <v>0.16681938915268638</v>
+        <v>0.15425866207617434</v>
       </c>
       <c r="G62" t="n">
-        <v>16.28001628001628</v>
+        <v>3.414425949637217</v>
       </c>
       <c r="H62" t="n">
-        <v>81.67282711300058</v>
+        <v>20.45168188553956</v>
       </c>
       <c r="I62" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="J62" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="63">
@@ -3018,31 +3195,31 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="E63" t="n">
-        <v>0.006089367656226343</v>
+        <v>9.153825089441324E-5</v>
       </c>
       <c r="F63" t="n">
-        <v>0.16745761054622443</v>
+        <v>0.1557065647713969</v>
       </c>
       <c r="G63" t="n">
-        <v>5.514199062586159</v>
+        <v>11.003521126760562</v>
       </c>
       <c r="H63" t="n">
-        <v>28.129093111570594</v>
+        <v>102.31903202548801</v>
       </c>
       <c r="I63" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="J63" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="64">
@@ -3050,28 +3227,28 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002175918578011255</v>
+        <v>0.0022068126471382218</v>
       </c>
       <c r="F64" t="n">
-        <v>0.16754573050686664</v>
+        <v>0.1574193021625265</v>
       </c>
       <c r="G64" t="n">
-        <v>7.352265416781546</v>
+        <v>7.316627034936894</v>
       </c>
       <c r="H64" t="n">
-        <v>45.071624805675036</v>
+        <v>44.74999850446082</v>
       </c>
       <c r="I64" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="J64" t="n">
         <v>4.0</v>
@@ -3082,31 +3259,31 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="E65" t="n">
-        <v>0.008680779846628257</v>
+        <v>0.006190938902312662</v>
       </c>
       <c r="F65" t="n">
-        <v>0.16888062610713153</v>
+        <v>0.1589007651593583</v>
       </c>
       <c r="G65" t="n">
-        <v>7.1225071225071215</v>
+        <v>3.658313517468447</v>
       </c>
       <c r="H65" t="n">
-        <v>33.80800505886053</v>
+        <v>18.60131159058022</v>
       </c>
       <c r="I65" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="J65" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
@@ -3114,31 +3291,31 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0043164272647121145</v>
+        <v>0.002639852672460511</v>
       </c>
       <c r="F66" t="n">
-        <v>0.17049887695612853</v>
+        <v>0.16140813483044267</v>
       </c>
       <c r="G66" t="n">
-        <v>9.157509157509157</v>
+        <v>25.60819462227913</v>
       </c>
       <c r="H66" t="n">
-        <v>49.86563407467865</v>
+        <v>152.03667526932875</v>
       </c>
       <c r="I66" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="J66" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -3146,31 +3323,31 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="E67" t="n">
-        <v>0.00792220570991544</v>
+        <v>0.007186767856109466</v>
       </c>
       <c r="F67" t="n">
-        <v>0.17068752302272358</v>
+        <v>0.16275915438836142</v>
       </c>
       <c r="G67" t="n">
-        <v>14.864362690449646</v>
+        <v>4.167013917826485</v>
       </c>
       <c r="H67" t="n">
-        <v>71.91505928209108</v>
+        <v>20.56635445264155</v>
       </c>
       <c r="I67" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="J67" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="68">
@@ -3178,31 +3355,31 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004357062139019125</v>
+        <v>0.0021491851288379443</v>
       </c>
       <c r="F68" t="n">
-        <v>0.17137777746808558</v>
+        <v>0.16548725492052171</v>
       </c>
       <c r="G68" t="n">
-        <v>20.110608345902463</v>
+        <v>4.543389368468877</v>
       </c>
       <c r="H68" t="n">
-        <v>109.32040764337262</v>
+        <v>27.90852575432878</v>
       </c>
       <c r="I68" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="J68" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="69">
@@ -3210,31 +3387,31 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0072609023659122255</v>
+        <v>0.008291195043718606</v>
       </c>
       <c r="F69" t="n">
-        <v>0.17208338607211976</v>
+        <v>0.16800579430692966</v>
       </c>
       <c r="G69" t="n">
-        <v>15.54001554001554</v>
+        <v>4.0241448692152915</v>
       </c>
       <c r="H69" t="n">
-        <v>76.53847964325983</v>
+        <v>19.285960424035352</v>
       </c>
       <c r="I69" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="J69" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="70">
@@ -3242,28 +3419,28 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="E70" t="n">
-        <v>0.00581511676028987</v>
+        <v>0.007013268900517116</v>
       </c>
       <c r="F70" t="n">
-        <v>0.17221691943935383</v>
+        <v>0.16875678291869312</v>
       </c>
       <c r="G70" t="n">
-        <v>4.383081306158229</v>
+        <v>4.191817572099262</v>
       </c>
       <c r="H70" t="n">
-        <v>22.56100992354803</v>
+        <v>20.79121129699683</v>
       </c>
       <c r="I70" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="J70" t="n">
         <v>5.0</v>
@@ -3274,31 +3451,31 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="E71" t="n">
-        <v>0.009322728612449597</v>
+        <v>0.007910801753738957</v>
       </c>
       <c r="F71" t="n">
-        <v>0.17348381939688814</v>
+        <v>0.1692032597327499</v>
       </c>
       <c r="G71" t="n">
-        <v>13.675213675213675</v>
+        <v>4.070666775217781</v>
       </c>
       <c r="H71" t="n">
-        <v>63.935725450354184</v>
+        <v>19.700098277404646</v>
       </c>
       <c r="I71" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="J71" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="72">
@@ -3306,31 +3483,31 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="E72" t="n">
-        <v>0.006626003774756235</v>
+        <v>1.340858260293718E-4</v>
       </c>
       <c r="F72" t="n">
-        <v>0.17448476606858085</v>
+        <v>0.17105999255697107</v>
       </c>
       <c r="G72" t="n">
-        <v>16.28001628001628</v>
+        <v>15.226494099733536</v>
       </c>
       <c r="H72" t="n">
-        <v>81.67282711300058</v>
+        <v>135.7751118429357</v>
       </c>
       <c r="I72" t="s">
-        <v>298</v>
+        <v>361</v>
       </c>
       <c r="J72" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
@@ -3338,31 +3515,31 @@
         <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004102497549145722</v>
+        <v>0.0021699599734573975</v>
       </c>
       <c r="F73" t="n">
-        <v>0.17603444029061643</v>
+        <v>0.1714268379031344</v>
       </c>
       <c r="G73" t="n">
-        <v>9.324009324009323</v>
+        <v>28.169014084507044</v>
       </c>
       <c r="H73" t="n">
-        <v>51.2462408615876</v>
+        <v>172.76187484538661</v>
       </c>
       <c r="I73" t="s">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="J73" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -3370,31 +3547,31 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="E74" t="n">
-        <v>0.008062513872847045</v>
+        <v>0.010646890959082663</v>
       </c>
       <c r="F74" t="n">
-        <v>0.18259222594388896</v>
+        <v>0.1732873287133454</v>
       </c>
       <c r="G74" t="n">
-        <v>2.3156919708643846</v>
+        <v>6.602112676056338</v>
       </c>
       <c r="H74" t="n">
-        <v>11.162862329624817</v>
+        <v>29.99001336820524</v>
       </c>
       <c r="I74" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J74" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
@@ -3402,31 +3579,31 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="E75" t="n">
-        <v>0.005436736087067465</v>
+        <v>0.009057831745835396</v>
       </c>
       <c r="F75" t="n">
-        <v>0.18329567379256026</v>
+        <v>0.17436326110733136</v>
       </c>
       <c r="G75" t="n">
-        <v>17.99370220422852</v>
+        <v>3.005839917554105</v>
       </c>
       <c r="H75" t="n">
-        <v>93.82953454200019</v>
+        <v>14.139848232800917</v>
       </c>
       <c r="I75" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="J75" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="76">
@@ -3434,31 +3611,31 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="E76" t="n">
-        <v>0.006626003774756235</v>
+        <v>0.010606647758094355</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1839690459814672</v>
+        <v>0.17879777649359058</v>
       </c>
       <c r="G76" t="n">
-        <v>16.28001628001628</v>
+        <v>4.694835680751173</v>
       </c>
       <c r="H76" t="n">
-        <v>81.67282711300058</v>
+        <v>21.344010926988602</v>
       </c>
       <c r="I76" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J76" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="77">
@@ -3466,31 +3643,31 @@
         <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="E77" t="n">
-        <v>0.005752199670681824</v>
+        <v>0.008746210464336586</v>
       </c>
       <c r="F77" t="n">
-        <v>0.18454973943437517</v>
+        <v>0.17929731451890002</v>
       </c>
       <c r="G77" t="n">
-        <v>5.604595768530195</v>
+        <v>14.084507042253522</v>
       </c>
       <c r="H77" t="n">
-        <v>28.909474265961002</v>
+        <v>66.74837693258013</v>
       </c>
       <c r="I77" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="J77" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
@@ -3498,28 +3675,28 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D78" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="E78" t="n">
-        <v>0.006272220423405496</v>
+        <v>0.011574403317453186</v>
       </c>
       <c r="F78" t="n">
-        <v>0.18503050249046213</v>
+        <v>0.18210394552793013</v>
       </c>
       <c r="G78" t="n">
-        <v>8.012820512820513</v>
+        <v>6.402048655569782</v>
       </c>
       <c r="H78" t="n">
-        <v>40.63801965155209</v>
+        <v>28.546473941015698</v>
       </c>
       <c r="I78" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c r="J78" t="n">
         <v>3.0</v>
@@ -3530,31 +3707,31 @@
         <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="E79" t="n">
-        <v>0.006017838022468237</v>
+        <v>0.003564419204932839</v>
       </c>
       <c r="F79" t="n">
-        <v>0.18936130310700053</v>
+        <v>0.18297351918655239</v>
       </c>
       <c r="G79" t="n">
-        <v>17.094017094017094</v>
+        <v>4.102283604539861</v>
       </c>
       <c r="H79" t="n">
-        <v>87.40217464350906</v>
+        <v>23.123564149824187</v>
       </c>
       <c r="I79" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="J79" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="80">
@@ -3562,31 +3739,31 @@
         <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0035423240108539015</v>
+        <v>0.008291195043718606</v>
       </c>
       <c r="F80" t="n">
-        <v>0.18951433458068373</v>
+        <v>0.18304407519594154</v>
       </c>
       <c r="G80" t="n">
-        <v>4.102564102564102</v>
+        <v>4.0241448692152915</v>
       </c>
       <c r="H80" t="n">
-        <v>23.150655454347703</v>
+        <v>19.285960424035352</v>
       </c>
       <c r="I80" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="J80" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="81">
@@ -3594,31 +3771,31 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="E81" t="n">
-        <v>0.007943962880166525</v>
+        <v>0.012547084611567104</v>
       </c>
       <c r="F81" t="n">
-        <v>0.19115160680400703</v>
+        <v>0.1850694980206148</v>
       </c>
       <c r="G81" t="n">
-        <v>3.465003465003465</v>
+        <v>6.2137531068765535</v>
       </c>
       <c r="H81" t="n">
-        <v>16.754480335891138</v>
+        <v>27.205469815189097</v>
       </c>
       <c r="I81" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="J81" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="82">
@@ -3626,31 +3803,31 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D82" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="E82" t="n">
-        <v>0.009496953857051679</v>
+        <v>0.0021699599734573975</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1924382755244682</v>
+        <v>0.18574857372795323</v>
       </c>
       <c r="G82" t="n">
-        <v>4.849366551494211</v>
+        <v>28.169014084507044</v>
       </c>
       <c r="H82" t="n">
-        <v>22.582453432356925</v>
+        <v>172.76187484538661</v>
       </c>
       <c r="I82" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="J82" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
@@ -3658,31 +3835,31 @@
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="E83" t="n">
-        <v>0.008609588585689285</v>
+        <v>0.00976417793171781</v>
       </c>
       <c r="F83" t="n">
-        <v>0.19285478431943998</v>
+        <v>0.18682127109353408</v>
       </c>
       <c r="G83" t="n">
-        <v>14.245014245014243</v>
+        <v>6.815084052703316</v>
       </c>
       <c r="H83" t="n">
-        <v>67.73331545577642</v>
+        <v>31.547261949413084</v>
       </c>
       <c r="I83" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="J83" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="84">
@@ -3690,31 +3867,31 @@
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C84" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E84" t="n">
-        <v>0.009043679489468836</v>
+        <v>0.010535547233516022</v>
       </c>
       <c r="F84" t="n">
-        <v>0.19343425574697232</v>
+        <v>0.18898137850119365</v>
       </c>
       <c r="G84" t="n">
-        <v>4.919141609789092</v>
+        <v>12.804097311139564</v>
       </c>
       <c r="H84" t="n">
-        <v>23.147951370439312</v>
+        <v>58.29705875473872</v>
       </c>
       <c r="I84" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="J84" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
@@ -3722,31 +3899,31 @@
         <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D85" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E85" t="n">
-        <v>0.007569216438465418</v>
+        <v>0.0136134327977718</v>
       </c>
       <c r="F85" t="n">
-        <v>0.19427655525394572</v>
+        <v>0.18898647883965558</v>
       </c>
       <c r="G85" t="n">
-        <v>5.18000518000518</v>
+        <v>3.5566936975387677</v>
       </c>
       <c r="H85" t="n">
-        <v>25.2974137564332</v>
+        <v>15.282039649957168</v>
       </c>
       <c r="I85" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="J85" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="86">
@@ -3754,31 +3931,31 @@
         <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E86" t="n">
-        <v>0.012385160372649159</v>
+        <v>0.007908146852712305</v>
       </c>
       <c r="F86" t="n">
-        <v>0.19632772738866075</v>
+        <v>0.1891365122273693</v>
       </c>
       <c r="G86" t="n">
-        <v>3.146138115463269</v>
+        <v>14.825796886582651</v>
       </c>
       <c r="H86" t="n">
-        <v>13.81549871694966</v>
+        <v>71.75480806079281</v>
       </c>
       <c r="I86" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="J86" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="87">
@@ -3786,31 +3963,383 @@
         <v>94</v>
       </c>
       <c r="B87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" t="s">
+        <v>284</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.007270634200758009</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.1896974559652317</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3.535859508515528</v>
+      </c>
+      <c r="H87" t="n">
+        <v>17.410260201275328</v>
+      </c>
+      <c r="I87" t="s">
+        <v>343</v>
+      </c>
+      <c r="J87" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
         <v>95</v>
       </c>
-      <c r="C87" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" t="s">
-        <v>257</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.005427731314368721</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.19706839849092586</v>
-      </c>
-      <c r="G87" t="n">
-        <v>5.698005698005698</v>
-      </c>
-      <c r="H87" t="n">
-        <v>29.722131271605395</v>
-      </c>
-      <c r="I87" t="s">
-        <v>281</v>
-      </c>
-      <c r="J87" t="n">
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" t="s">
+        <v>285</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.012472040747962538</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.18989687848510703</v>
+      </c>
+      <c r="G88" t="n">
+        <v>11.737089201877932</v>
+      </c>
+      <c r="H88" t="n">
+        <v>51.458519719208525</v>
+      </c>
+      <c r="I88" t="s">
+        <v>347</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.011323650168505065</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.19116985872711492</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3.2131955229475713</v>
+      </c>
+      <c r="H89" t="n">
+        <v>14.397885091208998</v>
+      </c>
+      <c r="I89" t="s">
+        <v>374</v>
+      </c>
+      <c r="J89" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" t="s">
+        <v>287</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.004363986233397801</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.19201539426950326</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6.057852491291837</v>
+      </c>
+      <c r="H90" t="n">
+        <v>32.920607999998445</v>
+      </c>
+      <c r="I90" t="s">
+        <v>375</v>
+      </c>
+      <c r="J90" t="n">
         <v>4.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.013541353104146165</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.19368238379263605</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4.367289005349929</v>
+      </c>
+      <c r="H91" t="n">
+        <v>18.788108233014803</v>
+      </c>
+      <c r="I91" t="s">
+        <v>376</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" t="s">
+        <v>289</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.007380446814353492</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.19435176611130864</v>
+      </c>
+      <c r="G92" t="n">
+        <v>7.5452716297786715</v>
+      </c>
+      <c r="H92" t="n">
+        <v>37.03914309546375</v>
+      </c>
+      <c r="I92" t="s">
+        <v>377</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" t="s">
+        <v>290</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.01356526046155647</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.19466148762333532</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6.036217303822937</v>
+      </c>
+      <c r="H93" t="n">
+        <v>25.957202004363424</v>
+      </c>
+      <c r="I93" t="s">
+        <v>335</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" t="s">
+        <v>291</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.009641755505168886</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.19650815981963254</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.9696249787883926</v>
+      </c>
+      <c r="H94" t="n">
+        <v>13.783965961376195</v>
+      </c>
+      <c r="I94" t="s">
+        <v>378</v>
+      </c>
+      <c r="J94" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" t="s">
+        <v>292</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.014629214002785147</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.19728540026613114</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5.868544600938966</v>
+      </c>
+      <c r="H95" t="n">
+        <v>24.793044544748348</v>
+      </c>
+      <c r="I95" t="s">
+        <v>379</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" t="s">
+        <v>293</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.012815243662505625</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.19735475240258663</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3.6114120621162873</v>
+      </c>
+      <c r="H96" t="n">
+        <v>15.735355382793314</v>
+      </c>
+      <c r="I96" t="s">
+        <v>380</v>
+      </c>
+      <c r="J96" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" t="s">
+        <v>294</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.013077685442545213</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.19754188010581453</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.592986490370796</v>
+      </c>
+      <c r="H97" t="n">
+        <v>15.582235924637581</v>
+      </c>
+      <c r="I97" t="s">
+        <v>340</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" t="s">
+        <v>295</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.013343741435580403</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.19759001741147902</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3.5747479802673907</v>
+      </c>
+      <c r="H98" t="n">
+        <v>15.431142526572833</v>
+      </c>
+      <c r="I98" t="s">
+        <v>381</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
